--- a/data/input/manual_puzzles.xlsx
+++ b/data/input/manual_puzzles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2331" uniqueCount="1474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1565">
   <si>
     <t>969.4</t>
   </si>
@@ -4446,6 +4446,279 @@
   </si>
   <si>
     <t>1439.9 (+3.1)</t>
+  </si>
+  <si>
+    <t>1358.0</t>
+  </si>
+  <si>
+    <t>1449.0 (-4.4)</t>
+  </si>
+  <si>
+    <t>1322.4</t>
+  </si>
+  <si>
+    <t>1453.4 (+2.3)</t>
+  </si>
+  <si>
+    <t>1536.7</t>
+  </si>
+  <si>
+    <t>1451.1 (+4.4)</t>
+  </si>
+  <si>
+    <t>1369.0</t>
+  </si>
+  <si>
+    <t>1446.7 (+2.7)</t>
+  </si>
+  <si>
+    <t>1320.3</t>
+  </si>
+  <si>
+    <t>1444.0 (+2.3)</t>
+  </si>
+  <si>
+    <t>1357.7</t>
+  </si>
+  <si>
+    <t>1441.7 (+2.7)</t>
+  </si>
+  <si>
+    <t>1439.0 (+1.5)</t>
+  </si>
+  <si>
+    <t>1476.8</t>
+  </si>
+  <si>
+    <t>1437.5 (-3.1)</t>
+  </si>
+  <si>
+    <t>1268.5</t>
+  </si>
+  <si>
+    <t>1440.6 (-5.1)</t>
+  </si>
+  <si>
+    <t>1066.6</t>
+  </si>
+  <si>
+    <t>1445.8 (+0.7)</t>
+  </si>
+  <si>
+    <t>1301.6</t>
+  </si>
+  <si>
+    <t>1445.0 (-4.9)</t>
+  </si>
+  <si>
+    <t>1449.9 (-4.8)</t>
+  </si>
+  <si>
+    <t>1452.6</t>
+  </si>
+  <si>
+    <t>1454.8 (-3.5)</t>
+  </si>
+  <si>
+    <t>1458.3 (+2.8)</t>
+  </si>
+  <si>
+    <t>1157.0</t>
+  </si>
+  <si>
+    <t>1455.5 (+1.1)</t>
+  </si>
+  <si>
+    <t>1454.4 (+1.7)</t>
+  </si>
+  <si>
+    <t>1385.0</t>
+  </si>
+  <si>
+    <t>1452.7 (+2.8)</t>
+  </si>
+  <si>
+    <t>1257.0</t>
+  </si>
+  <si>
+    <t>1449.9 (+1.7)</t>
+  </si>
+  <si>
+    <t>1448.2 (+1.8)</t>
+  </si>
+  <si>
+    <t>1274.0</t>
+  </si>
+  <si>
+    <t>1446.4 (+1.9)</t>
+  </si>
+  <si>
+    <t>1250.4</t>
+  </si>
+  <si>
+    <t>1444.4 (+1.7)</t>
+  </si>
+  <si>
+    <t>1370.4</t>
+  </si>
+  <si>
+    <t>1442.7 (-4.2)</t>
+  </si>
+  <si>
+    <t>1324.8</t>
+  </si>
+  <si>
+    <t>1446.9 (-4.7)</t>
+  </si>
+  <si>
+    <t>1488.1</t>
+  </si>
+  <si>
+    <t>1451.7 (+3.9)</t>
+  </si>
+  <si>
+    <t>1248.5</t>
+  </si>
+  <si>
+    <t>1447.8 (-5.3)</t>
+  </si>
+  <si>
+    <t>1354.6</t>
+  </si>
+  <si>
+    <t>1453.1 (+2.6)</t>
+  </si>
+  <si>
+    <t>1450.6 (-4.6)</t>
+  </si>
+  <si>
+    <t>1439.3</t>
+  </si>
+  <si>
+    <t>1455.2 (-3.7)</t>
+  </si>
+  <si>
+    <t>1458.9 (+2.1)</t>
+  </si>
+  <si>
+    <t>1408.1</t>
+  </si>
+  <si>
+    <t>1456.8 (-4.0)</t>
+  </si>
+  <si>
+    <t>1460.8 (+1.3)</t>
+  </si>
+  <si>
+    <t>1398.0</t>
+  </si>
+  <si>
+    <t>1459.5 (-4.1)</t>
+  </si>
+  <si>
+    <t>1332.9</t>
+  </si>
+  <si>
+    <t>1463.6 (+2.3)</t>
+  </si>
+  <si>
+    <t>1320.2</t>
+  </si>
+  <si>
+    <t>1461.3 (+2.2)</t>
+  </si>
+  <si>
+    <t>1489.4</t>
+  </si>
+  <si>
+    <t>1459.2 (+3.8)</t>
+  </si>
+  <si>
+    <t>1474.0</t>
+  </si>
+  <si>
+    <t>1455.3 (+3.7)</t>
+  </si>
+  <si>
+    <t>1471.7</t>
+  </si>
+  <si>
+    <t>1451.6 (-3.3)</t>
+  </si>
+  <si>
+    <t>1387.2</t>
+  </si>
+  <si>
+    <t>1454.9 (+2.8)</t>
+  </si>
+  <si>
+    <t>1452.1 (-3.7)</t>
+  </si>
+  <si>
+    <t>1457.5 (+1.4)</t>
+  </si>
+  <si>
+    <t>1461.8</t>
+  </si>
+  <si>
+    <t>1456.0 (-3.5)</t>
+  </si>
+  <si>
+    <t>1459.5 (+2.3)</t>
+  </si>
+  <si>
+    <t>1345.6</t>
+  </si>
+  <si>
+    <t>1457.2 (+2.4)</t>
+  </si>
+  <si>
+    <t>1555.0</t>
+  </si>
+  <si>
+    <t>1454.7 (-2.5)</t>
+  </si>
+  <si>
+    <t>1215.3</t>
+  </si>
+  <si>
+    <t>1457.3 (+1.4)</t>
+  </si>
+  <si>
+    <t>1479.6</t>
+  </si>
+  <si>
+    <t>1455.9 (+3.8)</t>
+  </si>
+  <si>
+    <t>1351.6</t>
+  </si>
+  <si>
+    <t>1452.1 (+2.5)</t>
+  </si>
+  <si>
+    <t>1391.4</t>
+  </si>
+  <si>
+    <t>1449.6 (-4.1)</t>
+  </si>
+  <si>
+    <t>1475.5</t>
+  </si>
+  <si>
+    <t>1453.7 (+3.7)</t>
+  </si>
+  <si>
+    <t>1432.0</t>
+  </si>
+  <si>
+    <t>1450.0 (-3.7)</t>
+  </si>
+  <si>
+    <t>1574.1</t>
+  </si>
+  <si>
+    <t>1453.7 (+4.7)</t>
   </si>
 </sst>
 </file>
@@ -4767,15 +5040,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I775"/>
+  <dimension ref="A1:I826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="J758" sqref="J758"/>
+    <sheetView tabSelected="1" topLeftCell="A799" workbookViewId="0">
+      <selection activeCell="A815" sqref="A815:I826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -27253,6 +27527,1485 @@
         <v>1473</v>
       </c>
     </row>
+    <row r="776" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>1</v>
+      </c>
+      <c r="B776" s="1">
+        <v>42766.635509259257</v>
+      </c>
+      <c r="C776">
+        <v>44527</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1</v>
+      </c>
+      <c r="F776" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="G776" s="2">
+        <v>0.21041666666666667</v>
+      </c>
+      <c r="H776" s="2">
+        <v>0</v>
+      </c>
+      <c r="I776" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="777" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>2</v>
+      </c>
+      <c r="B777" s="1">
+        <v>42766.631956018522</v>
+      </c>
+      <c r="C777">
+        <v>152707</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1</v>
+      </c>
+      <c r="F777" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G777" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H777" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I777" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="778" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>3</v>
+      </c>
+      <c r="B778" s="1">
+        <v>42766.631643518522</v>
+      </c>
+      <c r="C778">
+        <v>64486</v>
+      </c>
+      <c r="D778" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1</v>
+      </c>
+      <c r="F778" s="2">
+        <v>0.10625</v>
+      </c>
+      <c r="G778" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="H778" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="I778" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="779" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>4</v>
+      </c>
+      <c r="B779" s="1">
+        <v>42766.630104166667</v>
+      </c>
+      <c r="C779">
+        <v>102920</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1</v>
+      </c>
+      <c r="F779" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="G779" s="2">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="H779" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="I779" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="780" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>5</v>
+      </c>
+      <c r="B780" s="1">
+        <v>42766.627060185187</v>
+      </c>
+      <c r="C780">
+        <v>51180</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1</v>
+      </c>
+      <c r="F780" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G780" s="3">
+        <v>1.3951388888888889</v>
+      </c>
+      <c r="H780" s="2">
+        <v>0</v>
+      </c>
+      <c r="I780" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="781" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>6</v>
+      </c>
+      <c r="B781" s="1">
+        <v>42766.603715277779</v>
+      </c>
+      <c r="C781">
+        <v>76084</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1</v>
+      </c>
+      <c r="F781" s="2">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="G781" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="H781" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I781" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="782" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>7</v>
+      </c>
+      <c r="B782" s="1">
+        <v>42766.602789351855</v>
+      </c>
+      <c r="C782">
+        <v>71693</v>
+      </c>
+      <c r="D782" t="s">
+        <v>368</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1</v>
+      </c>
+      <c r="F782" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G782" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H782" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I782" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="783" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>8</v>
+      </c>
+      <c r="B783" s="1">
+        <v>42766.601712962962</v>
+      </c>
+      <c r="C783">
+        <v>72501</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1</v>
+      </c>
+      <c r="F783" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G783" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="H783" s="2">
+        <v>0</v>
+      </c>
+      <c r="I783" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="784" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>9</v>
+      </c>
+      <c r="B784" s="1">
+        <v>42766.597418981481</v>
+      </c>
+      <c r="C784">
+        <v>60047</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1</v>
+      </c>
+      <c r="F784" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="G784" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H784" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I784" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="785" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>10</v>
+      </c>
+      <c r="B785" s="1">
+        <v>42766.597129629627</v>
+      </c>
+      <c r="C785">
+        <v>105110</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1</v>
+      </c>
+      <c r="F785" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="G785" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H785" s="2">
+        <v>0</v>
+      </c>
+      <c r="I785" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="786" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>11</v>
+      </c>
+      <c r="B786" s="1">
+        <v>42766.596435185187</v>
+      </c>
+      <c r="C786">
+        <v>46011</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1</v>
+      </c>
+      <c r="F786" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="G786" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H786" s="2">
+        <v>0</v>
+      </c>
+      <c r="I786" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="787" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>12</v>
+      </c>
+      <c r="B787" s="1">
+        <v>42766.595763888887</v>
+      </c>
+      <c r="C787">
+        <v>89463</v>
+      </c>
+      <c r="D787" t="s">
+        <v>890</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1</v>
+      </c>
+      <c r="F787" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G787" s="2">
+        <v>0.25208333333333333</v>
+      </c>
+      <c r="H787" s="2">
+        <v>0</v>
+      </c>
+      <c r="I787" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="788" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>13</v>
+      </c>
+      <c r="B788" s="1">
+        <v>42766.591122685182</v>
+      </c>
+      <c r="C788">
+        <v>73684</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1</v>
+      </c>
+      <c r="F788" s="2">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G788" s="2">
+        <v>0.15416666666666667</v>
+      </c>
+      <c r="H788" s="2">
+        <v>0</v>
+      </c>
+      <c r="I788" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="789" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>14</v>
+      </c>
+      <c r="B789" s="1">
+        <v>42766.588518518518</v>
+      </c>
+      <c r="C789">
+        <v>149669</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1</v>
+      </c>
+      <c r="F789" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="G789" s="2">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="H789" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I789" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="790" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>15</v>
+      </c>
+      <c r="B790" s="1">
+        <v>42766.586388888885</v>
+      </c>
+      <c r="C790">
+        <v>60063</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1</v>
+      </c>
+      <c r="F790" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G790" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H790" s="2">
+        <v>0</v>
+      </c>
+      <c r="I790" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="791" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>16</v>
+      </c>
+      <c r="B791" s="1">
+        <v>42766.585972222223</v>
+      </c>
+      <c r="C791">
+        <v>169677</v>
+      </c>
+      <c r="D791" t="s">
+        <v>276</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1</v>
+      </c>
+      <c r="F791" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G791" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="H791" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I791" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="792" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>17</v>
+      </c>
+      <c r="B792" s="1">
+        <v>42766.585219907407</v>
+      </c>
+      <c r="C792">
+        <v>44354</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1</v>
+      </c>
+      <c r="F792" s="2">
+        <v>5.0694444444444452E-2</v>
+      </c>
+      <c r="G792" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H792" s="2">
+        <v>0</v>
+      </c>
+      <c r="I792" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="793" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>18</v>
+      </c>
+      <c r="B793" s="1">
+        <v>42766.58494212963</v>
+      </c>
+      <c r="C793">
+        <v>61405</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1</v>
+      </c>
+      <c r="F793" s="2">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="G793" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="H793" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I793" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="794" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>19</v>
+      </c>
+      <c r="B794" s="1">
+        <v>42766.58357638889</v>
+      </c>
+      <c r="C794">
+        <v>97239</v>
+      </c>
+      <c r="D794" t="s">
+        <v>931</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1</v>
+      </c>
+      <c r="F794" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G794" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H794" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I794" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>20</v>
+      </c>
+      <c r="B795" s="1">
+        <v>42766.583298611113</v>
+      </c>
+      <c r="C795">
+        <v>43693</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1</v>
+      </c>
+      <c r="F795" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="G795" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H795" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I795" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>21</v>
+      </c>
+      <c r="B796" s="1">
+        <v>42766.58289351852</v>
+      </c>
+      <c r="C796">
+        <v>158716</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1</v>
+      </c>
+      <c r="F796" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G796" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="H796" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I796" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>22</v>
+      </c>
+      <c r="B797" s="1">
+        <v>42766.582361111112</v>
+      </c>
+      <c r="C797">
+        <v>167676</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1</v>
+      </c>
+      <c r="F797" s="2">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="G797" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H797" s="2">
+        <v>0</v>
+      </c>
+      <c r="I797" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>23</v>
+      </c>
+      <c r="B798" s="1">
+        <v>42766.581678240742</v>
+      </c>
+      <c r="C798">
+        <v>93998</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1</v>
+      </c>
+      <c r="F798" s="2">
+        <v>0.10833333333333334</v>
+      </c>
+      <c r="G798" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="H798" s="2">
+        <v>0</v>
+      </c>
+      <c r="I798" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>24</v>
+      </c>
+      <c r="B799" s="1">
+        <v>42766.572962962964</v>
+      </c>
+      <c r="C799">
+        <v>64935</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1</v>
+      </c>
+      <c r="F799" s="2">
+        <v>0.10555555555555556</v>
+      </c>
+      <c r="G799" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="H799" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I799" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>25</v>
+      </c>
+      <c r="B800" s="1">
+        <v>42766.572280092594</v>
+      </c>
+      <c r="C800">
+        <v>23888</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1</v>
+      </c>
+      <c r="F800" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G800" s="2">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="H800" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I800" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>26</v>
+      </c>
+      <c r="B801" s="1">
+        <v>42766.571944444448</v>
+      </c>
+      <c r="C801">
+        <v>626</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1</v>
+      </c>
+      <c r="F801" s="2">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="G801" s="2">
+        <v>0.1763888888888889</v>
+      </c>
+      <c r="H801" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I801" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>27</v>
+      </c>
+      <c r="B802" s="1">
+        <v>42766.56890046296</v>
+      </c>
+      <c r="C802">
+        <v>48354</v>
+      </c>
+      <c r="D802" t="s">
+        <v>794</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1</v>
+      </c>
+      <c r="F802" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G802" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H802" s="2">
+        <v>0</v>
+      </c>
+      <c r="I802" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>28</v>
+      </c>
+      <c r="B803" s="1">
+        <v>42766.568055555559</v>
+      </c>
+      <c r="C803">
+        <v>148365</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1</v>
+      </c>
+      <c r="F803" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="G803" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="H803" s="2">
+        <v>0</v>
+      </c>
+      <c r="I803" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>29</v>
+      </c>
+      <c r="B804" s="1">
+        <v>42766.567442129628</v>
+      </c>
+      <c r="C804">
+        <v>166370</v>
+      </c>
+      <c r="D804" t="s">
+        <v>961</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1</v>
+      </c>
+      <c r="F804" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G804" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H804" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I804" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="805" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>30</v>
+      </c>
+      <c r="B805" s="1">
+        <v>42766.56689814815</v>
+      </c>
+      <c r="C805">
+        <v>169424</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1</v>
+      </c>
+      <c r="F805" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G805" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="H805" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="I805" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="806" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>31</v>
+      </c>
+      <c r="B806" s="1">
+        <v>42766.566053240742</v>
+      </c>
+      <c r="C806">
+        <v>153919</v>
+      </c>
+      <c r="D806" t="s">
+        <v>699</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1</v>
+      </c>
+      <c r="F806" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G806" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H806" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I806" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="807" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>32</v>
+      </c>
+      <c r="B807" s="1">
+        <v>42766.512430555558</v>
+      </c>
+      <c r="C807">
+        <v>177046</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1</v>
+      </c>
+      <c r="F807" s="2">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="G807" s="2">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="H807" s="2">
+        <v>0</v>
+      </c>
+      <c r="I807" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="808" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>33</v>
+      </c>
+      <c r="B808" s="1">
+        <v>42766.508333333331</v>
+      </c>
+      <c r="C808">
+        <v>77616</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1</v>
+      </c>
+      <c r="F808" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G808" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H808" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I808" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="809" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>34</v>
+      </c>
+      <c r="B809" s="1">
+        <v>42766.496076388888</v>
+      </c>
+      <c r="C809">
+        <v>60678</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1</v>
+      </c>
+      <c r="F809" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="G809" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="H809" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I809" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="810" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>35</v>
+      </c>
+      <c r="B810" s="1">
+        <v>42766.495358796295</v>
+      </c>
+      <c r="C810">
+        <v>153101</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1</v>
+      </c>
+      <c r="F810" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="G810" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="H810" s="2">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I810" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="811" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>36</v>
+      </c>
+      <c r="B811" s="1">
+        <v>42766.494016203702</v>
+      </c>
+      <c r="C811">
+        <v>141745</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1</v>
+      </c>
+      <c r="F811" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G811" s="2">
+        <v>9.5833333333333326E-2</v>
+      </c>
+      <c r="H811" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I811" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="812" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>37</v>
+      </c>
+      <c r="B812" s="1">
+        <v>42766.491446759261</v>
+      </c>
+      <c r="C812">
+        <v>59608</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1</v>
+      </c>
+      <c r="F812" s="2">
+        <v>9.4444444444444442E-2</v>
+      </c>
+      <c r="G812" s="2">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="H812" s="2">
+        <v>0</v>
+      </c>
+      <c r="I812" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="813" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>38</v>
+      </c>
+      <c r="B813" s="1">
+        <v>42766.487638888888</v>
+      </c>
+      <c r="C813">
+        <v>97636</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1</v>
+      </c>
+      <c r="F813" s="2">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="G813" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="H813" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I813" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="814" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>39</v>
+      </c>
+      <c r="B814" s="1">
+        <v>42766.486215277779</v>
+      </c>
+      <c r="C814">
+        <v>177474</v>
+      </c>
+      <c r="D814" t="s">
+        <v>953</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1</v>
+      </c>
+      <c r="F814" s="2">
+        <v>0.12638888888888888</v>
+      </c>
+      <c r="G814" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H814" s="2">
+        <v>0</v>
+      </c>
+      <c r="I814" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="815" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>1</v>
+      </c>
+      <c r="B815" s="1">
+        <v>42766.789039351854</v>
+      </c>
+      <c r="C815">
+        <v>56152</v>
+      </c>
+      <c r="D815" t="s">
+        <v>804</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1</v>
+      </c>
+      <c r="F815" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G815" s="2">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="H815" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I815" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="816" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>2</v>
+      </c>
+      <c r="B816" s="1">
+        <v>42766.788263888891</v>
+      </c>
+      <c r="C816">
+        <v>155879</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1</v>
+      </c>
+      <c r="F816" s="2">
+        <v>0.13263888888888889</v>
+      </c>
+      <c r="G816" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="H816" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="I816" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="817" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>3</v>
+      </c>
+      <c r="B817" s="1">
+        <v>42766.787465277775</v>
+      </c>
+      <c r="C817">
+        <v>176348</v>
+      </c>
+      <c r="D817" t="s">
+        <v>754</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1</v>
+      </c>
+      <c r="F817" s="2">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G817" s="2">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="H817" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I817" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="818" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>4</v>
+      </c>
+      <c r="B818" s="1">
+        <v>42766.782696759263</v>
+      </c>
+      <c r="C818">
+        <v>47622</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1</v>
+      </c>
+      <c r="F818" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="G818" s="2">
+        <v>0.10972222222222222</v>
+      </c>
+      <c r="H818" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I818" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="819" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>5</v>
+      </c>
+      <c r="B819" s="1">
+        <v>42766.780115740738</v>
+      </c>
+      <c r="C819">
+        <v>57090</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1</v>
+      </c>
+      <c r="F819" s="2">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="G819" s="2">
+        <v>4.7222222222222221E-2</v>
+      </c>
+      <c r="H819" s="2">
+        <v>0</v>
+      </c>
+      <c r="I819" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="820" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>6</v>
+      </c>
+      <c r="B820" s="1">
+        <v>42766.779270833336</v>
+      </c>
+      <c r="C820">
+        <v>63674</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1</v>
+      </c>
+      <c r="F820" s="2">
+        <v>5.9722222222222225E-2</v>
+      </c>
+      <c r="G820" s="2">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="H820" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I820" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="821" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>7</v>
+      </c>
+      <c r="B821" s="1">
+        <v>42766.777777777781</v>
+      </c>
+      <c r="C821">
+        <v>21770</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1</v>
+      </c>
+      <c r="F821" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G821" s="2">
+        <v>0.19722222222222222</v>
+      </c>
+      <c r="H821" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="I821" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="822" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>8</v>
+      </c>
+      <c r="B822" s="1">
+        <v>42766.774247685185</v>
+      </c>
+      <c r="C822">
+        <v>177321</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1</v>
+      </c>
+      <c r="F822" s="2">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="G822" s="2">
+        <v>0.28680555555555554</v>
+      </c>
+      <c r="H822" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="I822" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="823" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>9</v>
+      </c>
+      <c r="B823" s="1">
+        <v>42766.768888888888</v>
+      </c>
+      <c r="C823">
+        <v>63713</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1</v>
+      </c>
+      <c r="F823" s="2">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="G823" s="2">
+        <v>0.42777777777777781</v>
+      </c>
+      <c r="H823" s="2">
+        <v>0</v>
+      </c>
+      <c r="I823" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="824" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>10</v>
+      </c>
+      <c r="B824" s="1">
+        <v>42766.761701388888</v>
+      </c>
+      <c r="C824">
+        <v>141295</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1</v>
+      </c>
+      <c r="F824" s="2">
+        <v>0.19305555555555554</v>
+      </c>
+      <c r="G824" s="2">
+        <v>0.13958333333333334</v>
+      </c>
+      <c r="H824" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="I824" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="825" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>11</v>
+      </c>
+      <c r="B825" s="1">
+        <v>42766.759085648147</v>
+      </c>
+      <c r="C825">
+        <v>105499</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1</v>
+      </c>
+      <c r="F825" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G825" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H825" s="2">
+        <v>0</v>
+      </c>
+      <c r="I825" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="826" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>12</v>
+      </c>
+      <c r="B826" s="1">
+        <v>42766.758634259262</v>
+      </c>
+      <c r="C826">
+        <v>164890</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1</v>
+      </c>
+      <c r="F826" s="2">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="G826" s="4">
+        <v>0.12293981481481481</v>
+      </c>
+      <c r="H826" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="I826" t="s">
+        <v>1564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/input/manual_puzzles.xlsx
+++ b/data/input/manual_puzzles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2922" uniqueCount="1827">
   <si>
     <t>969.4</t>
   </si>
@@ -4719,6 +4719,792 @@
   </si>
   <si>
     <t>1453.7 (+4.7)</t>
+  </si>
+  <si>
+    <t>1264.4</t>
+  </si>
+  <si>
+    <t>1459.8 (+1.7)</t>
+  </si>
+  <si>
+    <t>1174.4</t>
+  </si>
+  <si>
+    <t>1458.1 (+1.2)</t>
+  </si>
+  <si>
+    <t>1373.5</t>
+  </si>
+  <si>
+    <t>1456.9 (+2.8)</t>
+  </si>
+  <si>
+    <t>1541.3</t>
+  </si>
+  <si>
+    <t>1454.2 (+4.4)</t>
+  </si>
+  <si>
+    <t>1337.6</t>
+  </si>
+  <si>
+    <t>1449.8 (+2.4)</t>
+  </si>
+  <si>
+    <t>1241.2</t>
+  </si>
+  <si>
+    <t>1447.4 (+1.6)</t>
+  </si>
+  <si>
+    <t>1445.7 (-4.8)</t>
+  </si>
+  <si>
+    <t>1189.8</t>
+  </si>
+  <si>
+    <t>1450.5 (+1.3)</t>
+  </si>
+  <si>
+    <t>1361.0</t>
+  </si>
+  <si>
+    <t>1449.2 (-4.4)</t>
+  </si>
+  <si>
+    <t>1245.1</t>
+  </si>
+  <si>
+    <t>1453.6 (+1.6)</t>
+  </si>
+  <si>
+    <t>1433.9</t>
+  </si>
+  <si>
+    <t>1452.0 (-3.7)</t>
+  </si>
+  <si>
+    <t>1280.0</t>
+  </si>
+  <si>
+    <t>1455.7 (+1.9)</t>
+  </si>
+  <si>
+    <t>1353.3</t>
+  </si>
+  <si>
+    <t>1453.8 (-4.5)</t>
+  </si>
+  <si>
+    <t>1306.1</t>
+  </si>
+  <si>
+    <t>1458.3 (+2.1)</t>
+  </si>
+  <si>
+    <t>1523.1</t>
+  </si>
+  <si>
+    <t>1456.3 (-2.9)</t>
+  </si>
+  <si>
+    <t>1250.1</t>
+  </si>
+  <si>
+    <t>1459.1 (+1.6)</t>
+  </si>
+  <si>
+    <t>1142.3</t>
+  </si>
+  <si>
+    <t>1460.9 (+1.0)</t>
+  </si>
+  <si>
+    <t>1352.0</t>
+  </si>
+  <si>
+    <t>1459.9 (+2.5)</t>
+  </si>
+  <si>
+    <t>1312.3</t>
+  </si>
+  <si>
+    <t>1457.5 (+2.1)</t>
+  </si>
+  <si>
+    <t>1455.3 (+2.6)</t>
+  </si>
+  <si>
+    <t>1452.8 (+2.0)</t>
+  </si>
+  <si>
+    <t>1528.6</t>
+  </si>
+  <si>
+    <t>1450.7 (-2.7)</t>
+  </si>
+  <si>
+    <t>1428.0</t>
+  </si>
+  <si>
+    <t>1453.5 (+3.3)</t>
+  </si>
+  <si>
+    <t>1395.7</t>
+  </si>
+  <si>
+    <t>1450.2 (-4.1)</t>
+  </si>
+  <si>
+    <t>1454.3 (+3.2)</t>
+  </si>
+  <si>
+    <t>1320.8</t>
+  </si>
+  <si>
+    <t>1451.1 (+2.3)</t>
+  </si>
+  <si>
+    <t>1368.4</t>
+  </si>
+  <si>
+    <t>1448.8 (+2.7)</t>
+  </si>
+  <si>
+    <t>1446.1 (+1.6)</t>
+  </si>
+  <si>
+    <t>1396.5</t>
+  </si>
+  <si>
+    <t>1444.5 (+3.0)</t>
+  </si>
+  <si>
+    <t>1148.4</t>
+  </si>
+  <si>
+    <t>1441.4 (-5.9)</t>
+  </si>
+  <si>
+    <t>1484.3</t>
+  </si>
+  <si>
+    <t>1447.4 (-3.2)</t>
+  </si>
+  <si>
+    <t>1247.7</t>
+  </si>
+  <si>
+    <t>1450.5 (-5.4)</t>
+  </si>
+  <si>
+    <t>1455.9 (+2.1)</t>
+  </si>
+  <si>
+    <t>1408.2</t>
+  </si>
+  <si>
+    <t>1453.8 (-4.0)</t>
+  </si>
+  <si>
+    <t>1218.7</t>
+  </si>
+  <si>
+    <t>1457.8 (+1.4)</t>
+  </si>
+  <si>
+    <t>1321.1</t>
+  </si>
+  <si>
+    <t>1456.4 (+2.2)</t>
+  </si>
+  <si>
+    <t>1454.1 (+1.7)</t>
+  </si>
+  <si>
+    <t>1176.4</t>
+  </si>
+  <si>
+    <t>1452.4 (-5.8)</t>
+  </si>
+  <si>
+    <t>1200.2</t>
+  </si>
+  <si>
+    <t>1458.3 (+1.3)</t>
+  </si>
+  <si>
+    <t>1502.7</t>
+  </si>
+  <si>
+    <t>1456.9 (-3.2)</t>
+  </si>
+  <si>
+    <t>1265.6</t>
+  </si>
+  <si>
+    <t>1460.2 (+1.7)</t>
+  </si>
+  <si>
+    <t>1488.4</t>
+  </si>
+  <si>
+    <t>1458.4 (-3.2)</t>
+  </si>
+  <si>
+    <t>1398.7</t>
+  </si>
+  <si>
+    <t>1461.6 (+2.9)</t>
+  </si>
+  <si>
+    <t>1326.2</t>
+  </si>
+  <si>
+    <t>1458.8 (+2.2)</t>
+  </si>
+  <si>
+    <t>1283.4</t>
+  </si>
+  <si>
+    <t>1456.5 (-5.1)</t>
+  </si>
+  <si>
+    <t>1291.4</t>
+  </si>
+  <si>
+    <t>1461.7 (+1.9)</t>
+  </si>
+  <si>
+    <t>1440.0</t>
+  </si>
+  <si>
+    <t>1459.7 (+3.3)</t>
+  </si>
+  <si>
+    <t>1303.4</t>
+  </si>
+  <si>
+    <t>1456.4 (-5.0)</t>
+  </si>
+  <si>
+    <t>1450.1</t>
+  </si>
+  <si>
+    <t>1461.4 (+3.4)</t>
+  </si>
+  <si>
+    <t>1459.7</t>
+  </si>
+  <si>
+    <t>1458.0 (+3.5)</t>
+  </si>
+  <si>
+    <t>1282.0</t>
+  </si>
+  <si>
+    <t>1454.5 (-5.1)</t>
+  </si>
+  <si>
+    <t>1502.1</t>
+  </si>
+  <si>
+    <t>1459.6 (-3.1)</t>
+  </si>
+  <si>
+    <t>1262.2</t>
+  </si>
+  <si>
+    <t>1462.7 (+1.7)</t>
+  </si>
+  <si>
+    <t>1235.6</t>
+  </si>
+  <si>
+    <t>1461.0 (+1.5)</t>
+  </si>
+  <si>
+    <t>1550.7</t>
+  </si>
+  <si>
+    <t>1459.5 (-2.6)</t>
+  </si>
+  <si>
+    <t>1609.1</t>
+  </si>
+  <si>
+    <t>1462.1 (-2.1)</t>
+  </si>
+  <si>
+    <t>1326.5</t>
+  </si>
+  <si>
+    <t>1464.2 (+2.2)</t>
+  </si>
+  <si>
+    <t>1279.3</t>
+  </si>
+  <si>
+    <t>1462.0 (+1.8)</t>
+  </si>
+  <si>
+    <t>1524.1</t>
+  </si>
+  <si>
+    <t>1460.2 (-2.9)</t>
+  </si>
+  <si>
+    <t>1314.6</t>
+  </si>
+  <si>
+    <t>1463.1 (+2.1)</t>
+  </si>
+  <si>
+    <t>1390.1</t>
+  </si>
+  <si>
+    <t>1461.0 (-4.2)</t>
+  </si>
+  <si>
+    <t>1123.5</t>
+  </si>
+  <si>
+    <t>1465.2 (+0.9)</t>
+  </si>
+  <si>
+    <t>1464.3 (+3.7)</t>
+  </si>
+  <si>
+    <t>1361.6</t>
+  </si>
+  <si>
+    <t>1460.6 (+2.5)</t>
+  </si>
+  <si>
+    <t>1458.1 (+2.6)</t>
+  </si>
+  <si>
+    <t>1374.0</t>
+  </si>
+  <si>
+    <t>1455.5 (-4.3)</t>
+  </si>
+  <si>
+    <t>1453.9</t>
+  </si>
+  <si>
+    <t>1497.6 (+3.1)</t>
+  </si>
+  <si>
+    <t>1494.5 (+2.1)</t>
+  </si>
+  <si>
+    <t>1263.7</t>
+  </si>
+  <si>
+    <t>1492.4 (+1.5)</t>
+  </si>
+  <si>
+    <t>1355.8</t>
+  </si>
+  <si>
+    <t>1490.9 (+2.2)</t>
+  </si>
+  <si>
+    <t>1455.5</t>
+  </si>
+  <si>
+    <t>1488.7 (+3.2)</t>
+  </si>
+  <si>
+    <t>1414.9</t>
+  </si>
+  <si>
+    <t>1485.5 (+2.8)</t>
+  </si>
+  <si>
+    <t>1482.7 (-3.9)</t>
+  </si>
+  <si>
+    <t>1456.3</t>
+  </si>
+  <si>
+    <t>1486.6 (+3.2)</t>
+  </si>
+  <si>
+    <t>1397.0</t>
+  </si>
+  <si>
+    <t>1483.4 (-4.4)</t>
+  </si>
+  <si>
+    <t>1452.0</t>
+  </si>
+  <si>
+    <t>1487.7 (-3.9)</t>
+  </si>
+  <si>
+    <t>1388.3</t>
+  </si>
+  <si>
+    <t>1491.6 (+2.5)</t>
+  </si>
+  <si>
+    <t>1489.1 (+3.0)</t>
+  </si>
+  <si>
+    <t>1486.1 (+1.9)</t>
+  </si>
+  <si>
+    <t>1262.3</t>
+  </si>
+  <si>
+    <t>1484.2 (-5.5)</t>
+  </si>
+  <si>
+    <t>1308.2</t>
+  </si>
+  <si>
+    <t>1489.7 (+1.8)</t>
+  </si>
+  <si>
+    <t>1487.8 (+2.8)</t>
+  </si>
+  <si>
+    <t>1485.0 (+3.3)</t>
+  </si>
+  <si>
+    <t>1407.4</t>
+  </si>
+  <si>
+    <t>1481.7 (+2.8)</t>
+  </si>
+  <si>
+    <t>1478.9 (+2.0)</t>
+  </si>
+  <si>
+    <t>1327.1</t>
+  </si>
+  <si>
+    <t>1476.9 (+2.1)</t>
+  </si>
+  <si>
+    <t>1258.3</t>
+  </si>
+  <si>
+    <t>1474.8 (+1.6)</t>
+  </si>
+  <si>
+    <t>1400.0</t>
+  </si>
+  <si>
+    <t>1473.2 (+2.8)</t>
+  </si>
+  <si>
+    <t>1277.2</t>
+  </si>
+  <si>
+    <t>1470.4 (+1.7)</t>
+  </si>
+  <si>
+    <t>1468.7 (+1.3)</t>
+  </si>
+  <si>
+    <t>1370.3</t>
+  </si>
+  <si>
+    <t>1467.4 (+2.6)</t>
+  </si>
+  <si>
+    <t>1464.9 (+2.3)</t>
+  </si>
+  <si>
+    <t>1363.6</t>
+  </si>
+  <si>
+    <t>1462.5 (-4.5)</t>
+  </si>
+  <si>
+    <t>1410.0</t>
+  </si>
+  <si>
+    <t>1467.0 (+2.9)</t>
+  </si>
+  <si>
+    <t>1273.1</t>
+  </si>
+  <si>
+    <t>1464.1 (-5.3)</t>
+  </si>
+  <si>
+    <t>1469.4 (+1.2)</t>
+  </si>
+  <si>
+    <t>1468.2 (+2.6)</t>
+  </si>
+  <si>
+    <t>1397.2</t>
+  </si>
+  <si>
+    <t>1465.6 (-4.2)</t>
+  </si>
+  <si>
+    <t>1357.9</t>
+  </si>
+  <si>
+    <t>1469.8 (+2.4)</t>
+  </si>
+  <si>
+    <t>1165.5</t>
+  </si>
+  <si>
+    <t>1467.4 (+1.1)</t>
+  </si>
+  <si>
+    <t>1323.7</t>
+  </si>
+  <si>
+    <t>1466.3 (+2.2)</t>
+  </si>
+  <si>
+    <t>1473.4</t>
+  </si>
+  <si>
+    <t>1464.2 (-3.4)</t>
+  </si>
+  <si>
+    <t>1467.6 (+3.5)</t>
+  </si>
+  <si>
+    <t>1464.2 (+1.9)</t>
+  </si>
+  <si>
+    <t>1462.3 (+1.4)</t>
+  </si>
+  <si>
+    <t>1294.8</t>
+  </si>
+  <si>
+    <t>1470.2 (+1.9)</t>
+  </si>
+  <si>
+    <t>1409.1</t>
+  </si>
+  <si>
+    <t>1468.3 (-4.1)</t>
+  </si>
+  <si>
+    <t>1340.1</t>
+  </si>
+  <si>
+    <t>1472.4 (+2.2)</t>
+  </si>
+  <si>
+    <t>1470.2 (+1.5)</t>
+  </si>
+  <si>
+    <t>1435.0</t>
+  </si>
+  <si>
+    <t>1468.7 (-3.9)</t>
+  </si>
+  <si>
+    <t>1501.3</t>
+  </si>
+  <si>
+    <t>1472.6 (-3.2)</t>
+  </si>
+  <si>
+    <t>1367.1</t>
+  </si>
+  <si>
+    <t>1475.8 (+2.5)</t>
+  </si>
+  <si>
+    <t>1392.4</t>
+  </si>
+  <si>
+    <t>1473.3 (+2.7)</t>
+  </si>
+  <si>
+    <t>1169.4</t>
+  </si>
+  <si>
+    <t>1470.6 (+1.1)</t>
+  </si>
+  <si>
+    <t>1393.3</t>
+  </si>
+  <si>
+    <t>1469.5 (-4.3)</t>
+  </si>
+  <si>
+    <t>1321.7</t>
+  </si>
+  <si>
+    <t>1473.8 (+2.1)</t>
+  </si>
+  <si>
+    <t>1444.0</t>
+  </si>
+  <si>
+    <t>1471.8 (-3.8)</t>
+  </si>
+  <si>
+    <t>1331.4</t>
+  </si>
+  <si>
+    <t>1475.6 (-4.9)</t>
+  </si>
+  <si>
+    <t>1211.2</t>
+  </si>
+  <si>
+    <t>1480.5 (+1.3)</t>
+  </si>
+  <si>
+    <t>1479.2 (+3.9)</t>
+  </si>
+  <si>
+    <t>1547.4</t>
+  </si>
+  <si>
+    <t>1475.3 (-3.1)</t>
+  </si>
+  <si>
+    <t>1426.2</t>
+  </si>
+  <si>
+    <t>1478.4 (+3.0)</t>
+  </si>
+  <si>
+    <t>1244.6</t>
+  </si>
+  <si>
+    <t>1475.4 (+1.5)</t>
+  </si>
+  <si>
+    <t>1362.5</t>
+  </si>
+  <si>
+    <t>1473.9 (-4.6)</t>
+  </si>
+  <si>
+    <t>1405.7</t>
+  </si>
+  <si>
+    <t>1478.5 (-4.2)</t>
+  </si>
+  <si>
+    <t>1557.5</t>
+  </si>
+  <si>
+    <t>1482.8 (-2.8)</t>
+  </si>
+  <si>
+    <t>1163.4</t>
+  </si>
+  <si>
+    <t>1485.5 (+1.0)</t>
+  </si>
+  <si>
+    <t>1497.8</t>
+  </si>
+  <si>
+    <t>1484.6 (-3.4)</t>
+  </si>
+  <si>
+    <t>1149.6</t>
+  </si>
+  <si>
+    <t>1488.0 (+0.9)</t>
+  </si>
+  <si>
+    <t>1386.0</t>
+  </si>
+  <si>
+    <t>1487.1 (-4.5)</t>
+  </si>
+  <si>
+    <t>1416.6</t>
+  </si>
+  <si>
+    <t>1491.6 (-4.3)</t>
+  </si>
+  <si>
+    <t>1380.1</t>
+  </si>
+  <si>
+    <t>1495.9 (+2.4)</t>
+  </si>
+  <si>
+    <t>1366.0</t>
+  </si>
+  <si>
+    <t>1493.5 (+2.3)</t>
+  </si>
+  <si>
+    <t>1324.7</t>
+  </si>
+  <si>
+    <t>1491.2 (-5.1)</t>
+  </si>
+  <si>
+    <t>1309.6</t>
+  </si>
+  <si>
+    <t>1496.3 (+1.8)</t>
+  </si>
+  <si>
+    <t>1361.1</t>
+  </si>
+  <si>
+    <t>1494.5 (+2.2)</t>
+  </si>
+  <si>
+    <t>1309.1</t>
+  </si>
+  <si>
+    <t>1492.3 (+1.8)</t>
+  </si>
+  <si>
+    <t>1490.4 (-5.2)</t>
+  </si>
+  <si>
+    <t>1495.6 (-3.9)</t>
+  </si>
+  <si>
+    <t>1499.6 (+1.5)</t>
+  </si>
+  <si>
+    <t>1498.0 (+2.6)</t>
+  </si>
+  <si>
+    <t>1328.0</t>
+  </si>
+  <si>
+    <t>1495.4 (+1.9)</t>
+  </si>
+  <si>
+    <t>1577.3</t>
+  </si>
+  <si>
+    <t>1493.4 (-2.7)</t>
+  </si>
+  <si>
+    <t>1248.8</t>
+  </si>
+  <si>
+    <t>1496.1 (+1.4)</t>
+  </si>
+  <si>
+    <t>1494.7 (-4.2)</t>
+  </si>
+  <si>
+    <t>1254.6</t>
+  </si>
+  <si>
+    <t>1499.0 (+1.4)</t>
   </si>
 </sst>
 </file>
@@ -5040,10 +5826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I826"/>
+  <dimension ref="A1:I972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A799" workbookViewId="0">
-      <selection activeCell="A815" sqref="A815:I826"/>
+    <sheetView tabSelected="1" topLeftCell="A914" workbookViewId="0">
+      <selection activeCell="A932" sqref="A932:I972"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29006,6 +29792,4240 @@
         <v>1564</v>
       </c>
     </row>
+    <row r="827" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>51</v>
+      </c>
+      <c r="B827" s="1">
+        <v>42767.588819444441</v>
+      </c>
+      <c r="C827">
+        <v>79571</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1</v>
+      </c>
+      <c r="F827" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="G827" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H827" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I827" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="828" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>52</v>
+      </c>
+      <c r="B828" s="1">
+        <v>42767.588252314818</v>
+      </c>
+      <c r="C828">
+        <v>161147</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1</v>
+      </c>
+      <c r="F828" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G828" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H828" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I828" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="829" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>53</v>
+      </c>
+      <c r="B829" s="1">
+        <v>42767.587314814817</v>
+      </c>
+      <c r="C829">
+        <v>150059</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1</v>
+      </c>
+      <c r="F829" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="G829" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="H829" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="I829" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="830" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>54</v>
+      </c>
+      <c r="B830" s="1">
+        <v>42766.990868055553</v>
+      </c>
+      <c r="C830">
+        <v>131326</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1</v>
+      </c>
+      <c r="F830" s="2">
+        <v>6.1805555555555558E-2</v>
+      </c>
+      <c r="G830" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H830" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I830" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="831" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>55</v>
+      </c>
+      <c r="B831" s="1">
+        <v>42766.990416666667</v>
+      </c>
+      <c r="C831">
+        <v>156443</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1</v>
+      </c>
+      <c r="F831" s="2">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G831" s="2">
+        <v>0.1013888888888889</v>
+      </c>
+      <c r="H831" s="2">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="I831" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="832" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>56</v>
+      </c>
+      <c r="B832" s="1">
+        <v>42766.988692129627</v>
+      </c>
+      <c r="C832">
+        <v>91918</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1</v>
+      </c>
+      <c r="F832" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="G832" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="H832" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I832" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="833" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>57</v>
+      </c>
+      <c r="B833" s="1">
+        <v>42766.987916666665</v>
+      </c>
+      <c r="C833">
+        <v>14070</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1</v>
+      </c>
+      <c r="F833" s="2">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="G833" s="2">
+        <v>0.40208333333333335</v>
+      </c>
+      <c r="H833" s="2">
+        <v>0</v>
+      </c>
+      <c r="I833" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="834" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>58</v>
+      </c>
+      <c r="B834" s="1">
+        <v>42766.981180555558</v>
+      </c>
+      <c r="C834">
+        <v>158262</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1</v>
+      </c>
+      <c r="F834" s="2">
+        <v>5.8333333333333327E-2</v>
+      </c>
+      <c r="G834" s="2">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="H834" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I834" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="835" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>59</v>
+      </c>
+      <c r="B835" s="1">
+        <v>42766.980717592596</v>
+      </c>
+      <c r="C835">
+        <v>1186</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1</v>
+      </c>
+      <c r="F835" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G835" s="2">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="H835" s="2">
+        <v>0</v>
+      </c>
+      <c r="I835" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="836" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>60</v>
+      </c>
+      <c r="B836" s="1">
+        <v>42766.979537037034</v>
+      </c>
+      <c r="C836">
+        <v>71891</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1</v>
+      </c>
+      <c r="F836" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G836" s="2">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="H836" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I836" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="837" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>61</v>
+      </c>
+      <c r="B837" s="1">
+        <v>42766.977673611109</v>
+      </c>
+      <c r="C837">
+        <v>31960</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1</v>
+      </c>
+      <c r="F837" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G837" s="2">
+        <v>5.1388888888888894E-2</v>
+      </c>
+      <c r="H837" s="2">
+        <v>0</v>
+      </c>
+      <c r="I837" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="838" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>62</v>
+      </c>
+      <c r="B838" s="1">
+        <v>42766.976782407408</v>
+      </c>
+      <c r="C838">
+        <v>161017</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1</v>
+      </c>
+      <c r="F838" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="G838" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H838" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="I838" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="839" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>63</v>
+      </c>
+      <c r="B839" s="1">
+        <v>42766.974976851852</v>
+      </c>
+      <c r="C839">
+        <v>122343</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1</v>
+      </c>
+      <c r="F839" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G839" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="H839" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I839" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="840" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>64</v>
+      </c>
+      <c r="B840" s="1">
+        <v>42766.974456018521</v>
+      </c>
+      <c r="C840">
+        <v>160423</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1</v>
+      </c>
+      <c r="F840" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G840" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="H840" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="I840" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="841" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>65</v>
+      </c>
+      <c r="B841" s="1">
+        <v>42766.973576388889</v>
+      </c>
+      <c r="C841">
+        <v>55039</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1</v>
+      </c>
+      <c r="F841" s="2">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="G841" s="2">
+        <v>0.36319444444444443</v>
+      </c>
+      <c r="H841" s="2">
+        <v>0</v>
+      </c>
+      <c r="I841" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="842" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>66</v>
+      </c>
+      <c r="B842" s="1">
+        <v>42766.967476851853</v>
+      </c>
+      <c r="C842">
+        <v>78990</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1</v>
+      </c>
+      <c r="F842" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="G842" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H842" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I842" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="843" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>1</v>
+      </c>
+      <c r="B843" s="1">
+        <v>42768.739687499998</v>
+      </c>
+      <c r="C843">
+        <v>58882</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1</v>
+      </c>
+      <c r="F843" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="G843" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H843" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I843" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="844" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>2</v>
+      </c>
+      <c r="B844" s="1">
+        <v>42768.73945601852</v>
+      </c>
+      <c r="C844">
+        <v>63853</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1</v>
+      </c>
+      <c r="F844" s="2">
+        <v>8.4722222222222213E-2</v>
+      </c>
+      <c r="G844" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H844" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="I844" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>3</v>
+      </c>
+      <c r="B845" s="1">
+        <v>42768.738298611112</v>
+      </c>
+      <c r="C845">
+        <v>54127</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1</v>
+      </c>
+      <c r="F845" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="G845" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H845" s="2">
+        <v>0</v>
+      </c>
+      <c r="I845" t="s">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="846" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>4</v>
+      </c>
+      <c r="B846" s="1">
+        <v>42768.737905092596</v>
+      </c>
+      <c r="C846">
+        <v>146920</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1</v>
+      </c>
+      <c r="F846" s="2">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="G846" s="2">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="H846" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="I846" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="847" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>5</v>
+      </c>
+      <c r="B847" s="1">
+        <v>42768.735949074071</v>
+      </c>
+      <c r="C847">
+        <v>56433</v>
+      </c>
+      <c r="D847" t="s">
+        <v>583</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1</v>
+      </c>
+      <c r="F847" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="G847" s="2">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H847" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I847" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="848" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>6</v>
+      </c>
+      <c r="B848" s="1">
+        <v>42768.735312500001</v>
+      </c>
+      <c r="C848">
+        <v>158072</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1</v>
+      </c>
+      <c r="F848" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G848" s="2">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="H848" s="2">
+        <v>0</v>
+      </c>
+      <c r="I848" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="849" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>7</v>
+      </c>
+      <c r="B849" s="1">
+        <v>42768.733657407407</v>
+      </c>
+      <c r="C849">
+        <v>78646</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1</v>
+      </c>
+      <c r="F849" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G849" s="2">
+        <v>0.11388888888888889</v>
+      </c>
+      <c r="H849" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I849" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="850" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>8</v>
+      </c>
+      <c r="B850" s="1">
+        <v>42768.731504629628</v>
+      </c>
+      <c r="C850">
+        <v>77443</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1</v>
+      </c>
+      <c r="F850" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="G850" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H850" s="2">
+        <v>0</v>
+      </c>
+      <c r="I850" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="851" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>9</v>
+      </c>
+      <c r="B851" s="1">
+        <v>42768.730844907404</v>
+      </c>
+      <c r="C851">
+        <v>150629</v>
+      </c>
+      <c r="D851" t="s">
+        <v>194</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1</v>
+      </c>
+      <c r="F851" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="G851" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="H851" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I851" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="852" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>10</v>
+      </c>
+      <c r="B852" s="1">
+        <v>42768.730312500003</v>
+      </c>
+      <c r="C852">
+        <v>134186</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1</v>
+      </c>
+      <c r="F852" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G852" s="2">
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="H852" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I852" t="s">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="853" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>11</v>
+      </c>
+      <c r="B853" s="1">
+        <v>42768.729837962965</v>
+      </c>
+      <c r="C853">
+        <v>17970</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1</v>
+      </c>
+      <c r="F853" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G853" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H853" s="2">
+        <v>7.6388888888888886E-3</v>
+      </c>
+      <c r="I853" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="854" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>12</v>
+      </c>
+      <c r="B854" s="1">
+        <v>42768.729398148149</v>
+      </c>
+      <c r="C854">
+        <v>62506</v>
+      </c>
+      <c r="D854" t="s">
+        <v>323</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1</v>
+      </c>
+      <c r="F854" s="2">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="G854" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H854" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I854" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="855" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>13</v>
+      </c>
+      <c r="B855" s="1">
+        <v>42768.729050925926</v>
+      </c>
+      <c r="C855">
+        <v>74290</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1</v>
+      </c>
+      <c r="F855" s="2">
+        <v>0.10694444444444444</v>
+      </c>
+      <c r="G855" s="2">
+        <v>0.2673611111111111</v>
+      </c>
+      <c r="H855" s="2">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="I855" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="856" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>14</v>
+      </c>
+      <c r="B856" s="1">
+        <v>42768.72451388889</v>
+      </c>
+      <c r="C856">
+        <v>147485</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1</v>
+      </c>
+      <c r="F856" s="2">
+        <v>4.3055555555555562E-2</v>
+      </c>
+      <c r="G856" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H856" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I856" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="857" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>15</v>
+      </c>
+      <c r="B857" s="1">
+        <v>42768.724236111113</v>
+      </c>
+      <c r="C857">
+        <v>164280</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1</v>
+      </c>
+      <c r="F857" s="2">
+        <v>0.1875</v>
+      </c>
+      <c r="G857" s="2">
+        <v>0.87013888888888891</v>
+      </c>
+      <c r="H857" s="2">
+        <v>0.74791666666666667</v>
+      </c>
+      <c r="I857" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="858" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>16</v>
+      </c>
+      <c r="B858" s="1">
+        <v>42768.709537037037</v>
+      </c>
+      <c r="C858">
+        <v>48275</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1</v>
+      </c>
+      <c r="F858" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="G858" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H858" s="2">
+        <v>0</v>
+      </c>
+      <c r="I858" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="859" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>17</v>
+      </c>
+      <c r="B859" s="1">
+        <v>42768.708726851852</v>
+      </c>
+      <c r="C859">
+        <v>157367</v>
+      </c>
+      <c r="D859" t="s">
+        <v>530</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1</v>
+      </c>
+      <c r="F859" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G859" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H859" s="2">
+        <v>5.5555555555555558E-3</v>
+      </c>
+      <c r="I859" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="860" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>18</v>
+      </c>
+      <c r="B860" s="1">
+        <v>42768.707766203705</v>
+      </c>
+      <c r="C860">
+        <v>95238</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1</v>
+      </c>
+      <c r="F860" s="2">
+        <v>0.16319444444444445</v>
+      </c>
+      <c r="G860" s="2">
+        <v>0.8569444444444444</v>
+      </c>
+      <c r="H860" s="2">
+        <v>0</v>
+      </c>
+      <c r="I860" t="s">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="861" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>19</v>
+      </c>
+      <c r="B861" s="1">
+        <v>42768.693449074075</v>
+      </c>
+      <c r="C861">
+        <v>167269</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1</v>
+      </c>
+      <c r="F861" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="G861" s="3">
+        <v>1.0368055555555555</v>
+      </c>
+      <c r="H861" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I861" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="862" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>20</v>
+      </c>
+      <c r="B862" s="1">
+        <v>42768.676134259258</v>
+      </c>
+      <c r="C862">
+        <v>58862</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1</v>
+      </c>
+      <c r="F862" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G862" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H862" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I862" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="863" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>21</v>
+      </c>
+      <c r="B863" s="1">
+        <v>42768.675324074073</v>
+      </c>
+      <c r="C863">
+        <v>55377</v>
+      </c>
+      <c r="D863" t="s">
+        <v>861</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1</v>
+      </c>
+      <c r="F863" s="2">
+        <v>8.5416666666666655E-2</v>
+      </c>
+      <c r="G863" s="2">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="H863" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I863" t="s">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="864" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>22</v>
+      </c>
+      <c r="B864" s="1">
+        <v>42768.673854166664</v>
+      </c>
+      <c r="C864">
+        <v>62118</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1</v>
+      </c>
+      <c r="F864" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="G864" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="H864" s="2">
+        <v>0</v>
+      </c>
+      <c r="I864" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="865" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>23</v>
+      </c>
+      <c r="B865" s="1">
+        <v>42768.672407407408</v>
+      </c>
+      <c r="C865">
+        <v>142854</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1</v>
+      </c>
+      <c r="F865" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G865" s="2">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="H865" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I865" t="s">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="866" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>24</v>
+      </c>
+      <c r="B866" s="1">
+        <v>42768.669432870367</v>
+      </c>
+      <c r="C866">
+        <v>71633</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1</v>
+      </c>
+      <c r="F866" s="2">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G866" s="2">
+        <v>1.5277777777777777E-2</v>
+      </c>
+      <c r="H866" s="2">
+        <v>0</v>
+      </c>
+      <c r="I866" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="867" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>25</v>
+      </c>
+      <c r="B867" s="1">
+        <v>42767.945219907408</v>
+      </c>
+      <c r="C867">
+        <v>24675</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1</v>
+      </c>
+      <c r="F867" s="2">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="G867" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H867" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I867" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="868" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>26</v>
+      </c>
+      <c r="B868" s="1">
+        <v>42767.944722222222</v>
+      </c>
+      <c r="C868">
+        <v>9428</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1</v>
+      </c>
+      <c r="F868" s="2">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G868" s="2">
+        <v>4.9305555555555554E-2</v>
+      </c>
+      <c r="H868" s="2">
+        <v>0</v>
+      </c>
+      <c r="I868" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="869" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>27</v>
+      </c>
+      <c r="B869" s="1">
+        <v>42767.943854166668</v>
+      </c>
+      <c r="C869">
+        <v>104417</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1</v>
+      </c>
+      <c r="F869" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G869" s="2">
+        <v>2.2916666666666669E-2</v>
+      </c>
+      <c r="H869" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I869" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="870" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>28</v>
+      </c>
+      <c r="B870" s="1">
+        <v>42767.943425925929</v>
+      </c>
+      <c r="C870">
+        <v>64512</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1</v>
+      </c>
+      <c r="F870" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="G870" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H870" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I870" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>29</v>
+      </c>
+      <c r="B871" s="1">
+        <v>42767.942384259259</v>
+      </c>
+      <c r="C871">
+        <v>75162</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1</v>
+      </c>
+      <c r="F871" s="2">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="G871" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="H871" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I871" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="872" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>30</v>
+      </c>
+      <c r="B872" s="1">
+        <v>42767.941666666666</v>
+      </c>
+      <c r="C872">
+        <v>78360</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1</v>
+      </c>
+      <c r="F872" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G872" s="2">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="H872" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I872" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="873" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>31</v>
+      </c>
+      <c r="B873" s="1">
+        <v>42767.938379629632</v>
+      </c>
+      <c r="C873">
+        <v>158095</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1</v>
+      </c>
+      <c r="F873" s="2">
+        <v>0.15069444444444444</v>
+      </c>
+      <c r="G873" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="H873" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="I873" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="874" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>32</v>
+      </c>
+      <c r="B874" s="1">
+        <v>42767.937256944446</v>
+      </c>
+      <c r="C874">
+        <v>64194</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1</v>
+      </c>
+      <c r="F874" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="G874" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H874" s="2">
+        <v>0</v>
+      </c>
+      <c r="I874" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="875" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>33</v>
+      </c>
+      <c r="B875" s="1">
+        <v>42767.936874999999</v>
+      </c>
+      <c r="C875">
+        <v>7304</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1</v>
+      </c>
+      <c r="F875" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="G875" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="H875" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I875" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="876" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>34</v>
+      </c>
+      <c r="B876" s="1">
+        <v>42767.935173611113</v>
+      </c>
+      <c r="C876">
+        <v>59912</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1</v>
+      </c>
+      <c r="F876" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="G876" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H876" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I876" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="877" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>35</v>
+      </c>
+      <c r="B877" s="1">
+        <v>42767.934027777781</v>
+      </c>
+      <c r="C877">
+        <v>155609</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1</v>
+      </c>
+      <c r="F877" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="G877" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="H877" s="2">
+        <v>0</v>
+      </c>
+      <c r="I877" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="878" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>36</v>
+      </c>
+      <c r="B878" s="1">
+        <v>42767.931701388887</v>
+      </c>
+      <c r="C878">
+        <v>58932</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1</v>
+      </c>
+      <c r="F878" s="2">
+        <v>8.8888888888888892E-2</v>
+      </c>
+      <c r="G878" s="2">
+        <v>3.888888888888889E-2</v>
+      </c>
+      <c r="H878" s="2">
+        <v>0</v>
+      </c>
+      <c r="I878" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="879" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>37</v>
+      </c>
+      <c r="B879" s="1">
+        <v>42767.931006944447</v>
+      </c>
+      <c r="C879">
+        <v>96951</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1</v>
+      </c>
+      <c r="F879" s="2">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="G879" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H879" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I879" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="880" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>38</v>
+      </c>
+      <c r="B880" s="1">
+        <v>42767.930578703701</v>
+      </c>
+      <c r="C880">
+        <v>164405</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1</v>
+      </c>
+      <c r="F880" s="2">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="G880" s="2">
+        <v>6.3194444444444442E-2</v>
+      </c>
+      <c r="H880" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I880" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="881" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>39</v>
+      </c>
+      <c r="B881" s="1">
+        <v>42767.929097222222</v>
+      </c>
+      <c r="C881">
+        <v>16375</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1</v>
+      </c>
+      <c r="F881" s="2">
+        <v>0.14722222222222223</v>
+      </c>
+      <c r="G881" s="2">
+        <v>0.14861111111111111</v>
+      </c>
+      <c r="H881" s="2">
+        <v>0</v>
+      </c>
+      <c r="I881" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="882" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>40</v>
+      </c>
+      <c r="B882" s="1">
+        <v>42767.926076388889</v>
+      </c>
+      <c r="C882">
+        <v>103133</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1</v>
+      </c>
+      <c r="F882" s="2">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="G882" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H882" s="2">
+        <v>0</v>
+      </c>
+      <c r="I882" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="883" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>41</v>
+      </c>
+      <c r="B883" s="1">
+        <v>42767.925682870373</v>
+      </c>
+      <c r="C883">
+        <v>140063</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1</v>
+      </c>
+      <c r="F883" s="2">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="G883" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H883" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I883" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="884" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>42</v>
+      </c>
+      <c r="B884" s="1">
+        <v>42767.608344907407</v>
+      </c>
+      <c r="C884">
+        <v>42457</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1</v>
+      </c>
+      <c r="F884" s="2">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G884" s="2">
+        <v>3.6111111111111115E-2</v>
+      </c>
+      <c r="H884" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I884" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="885" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>43</v>
+      </c>
+      <c r="B885" s="1">
+        <v>42767.607557870368</v>
+      </c>
+      <c r="C885">
+        <v>173582</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1</v>
+      </c>
+      <c r="F885" s="2">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="G885" s="2">
+        <v>2.4305555555555556E-2</v>
+      </c>
+      <c r="H885" s="2">
+        <v>0</v>
+      </c>
+      <c r="I885" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="886" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>44</v>
+      </c>
+      <c r="B886" s="1">
+        <v>42767.607094907406</v>
+      </c>
+      <c r="C886">
+        <v>44768</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1</v>
+      </c>
+      <c r="F886" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G886" s="2">
+        <v>0.18402777777777779</v>
+      </c>
+      <c r="H886" s="2">
+        <v>0.17430555555555557</v>
+      </c>
+      <c r="I886" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="887" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A887">
+        <v>45</v>
+      </c>
+      <c r="B887" s="1">
+        <v>42767.603773148148</v>
+      </c>
+      <c r="C887">
+        <v>40283</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1</v>
+      </c>
+      <c r="F887" s="2">
+        <v>5.4166666666666669E-2</v>
+      </c>
+      <c r="G887" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="H887" s="2">
+        <v>0</v>
+      </c>
+      <c r="I887" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="888" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A888">
+        <v>46</v>
+      </c>
+      <c r="B888" s="1">
+        <v>42767.602187500001</v>
+      </c>
+      <c r="C888">
+        <v>53892</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1</v>
+      </c>
+      <c r="F888" s="2">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="G888" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="H888" s="2">
+        <v>0</v>
+      </c>
+      <c r="I888" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="889" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A889">
+        <v>47</v>
+      </c>
+      <c r="B889" s="1">
+        <v>42767.602071759262</v>
+      </c>
+      <c r="C889">
+        <v>88214</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1</v>
+      </c>
+      <c r="F889" s="2">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="G889" s="2">
+        <v>2.361111111111111E-2</v>
+      </c>
+      <c r="H889" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I889" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="890" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A890">
+        <v>48</v>
+      </c>
+      <c r="B890" s="1">
+        <v>42767.601631944446</v>
+      </c>
+      <c r="C890">
+        <v>148092</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1</v>
+      </c>
+      <c r="F890" s="2">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="G890" s="2">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="H890" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I890" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="891" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A891">
+        <v>49</v>
+      </c>
+      <c r="B891" s="1">
+        <v>42767.59579861111</v>
+      </c>
+      <c r="C891">
+        <v>46008</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1</v>
+      </c>
+      <c r="F891" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="G891" s="2">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="H891" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I891" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="892" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A892">
+        <v>50</v>
+      </c>
+      <c r="B892" s="1">
+        <v>42767.593773148146</v>
+      </c>
+      <c r="C892">
+        <v>174505</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1</v>
+      </c>
+      <c r="F892" s="2">
+        <v>0.12569444444444444</v>
+      </c>
+      <c r="G892" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="H892" s="2">
+        <v>0</v>
+      </c>
+      <c r="I892" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="893" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A893">
+        <v>1</v>
+      </c>
+      <c r="B893" s="1">
+        <v>42768.97079861111</v>
+      </c>
+      <c r="C893">
+        <v>168986</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1</v>
+      </c>
+      <c r="F893" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G893" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H893" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I893" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="894" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A894">
+        <v>2</v>
+      </c>
+      <c r="B894" s="1">
+        <v>42768.970081018517</v>
+      </c>
+      <c r="C894">
+        <v>123312</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1</v>
+      </c>
+      <c r="F894" s="2">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="G894" s="2">
+        <v>0.24513888888888888</v>
+      </c>
+      <c r="H894" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="I894" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="895" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A895">
+        <v>3</v>
+      </c>
+      <c r="B895" s="1">
+        <v>42768.965937499997</v>
+      </c>
+      <c r="C895">
+        <v>162438</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1</v>
+      </c>
+      <c r="F895" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="G895" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="H895" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="I895" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="896" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A896">
+        <v>4</v>
+      </c>
+      <c r="B896" s="1">
+        <v>42768.962789351855</v>
+      </c>
+      <c r="C896">
+        <v>165275</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1</v>
+      </c>
+      <c r="F896" s="2">
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="G896" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="H896" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I896" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="897" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A897">
+        <v>5</v>
+      </c>
+      <c r="B897" s="1">
+        <v>42768.962291666663</v>
+      </c>
+      <c r="C897">
+        <v>174188</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E897" t="s">
+        <v>1</v>
+      </c>
+      <c r="F897" s="2">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="G897" s="2">
+        <v>0.15625</v>
+      </c>
+      <c r="H897" s="2">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="I897" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="898" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A898">
+        <v>6</v>
+      </c>
+      <c r="B898" s="1">
+        <v>42768.959652777776</v>
+      </c>
+      <c r="C898">
+        <v>154132</v>
+      </c>
+      <c r="D898" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E898" t="s">
+        <v>1</v>
+      </c>
+      <c r="F898" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G898" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="H898" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="I898" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="899" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A899">
+        <v>7</v>
+      </c>
+      <c r="B899" s="1">
+        <v>42768.958726851852</v>
+      </c>
+      <c r="C899">
+        <v>61897</v>
+      </c>
+      <c r="D899" t="s">
+        <v>915</v>
+      </c>
+      <c r="E899" t="s">
+        <v>1</v>
+      </c>
+      <c r="F899" s="2">
+        <v>8.7500000000000008E-2</v>
+      </c>
+      <c r="G899" s="2">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="H899" s="2">
+        <v>0</v>
+      </c>
+      <c r="I899" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="900" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A900">
+        <v>8</v>
+      </c>
+      <c r="B900" s="1">
+        <v>42768.958356481482</v>
+      </c>
+      <c r="C900">
+        <v>173578</v>
+      </c>
+      <c r="D900" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E900" t="s">
+        <v>1</v>
+      </c>
+      <c r="F900" s="2">
+        <v>8.2638888888888887E-2</v>
+      </c>
+      <c r="G900" s="2">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="H900" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I900" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="901" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A901">
+        <v>9</v>
+      </c>
+      <c r="B901" s="1">
+        <v>42768.949525462966</v>
+      </c>
+      <c r="C901">
+        <v>40675</v>
+      </c>
+      <c r="D901" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E901" t="s">
+        <v>1</v>
+      </c>
+      <c r="F901" s="2">
+        <v>9.3055555555555558E-2</v>
+      </c>
+      <c r="G901" s="2">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="H901" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="I901" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="902" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A902">
+        <v>10</v>
+      </c>
+      <c r="B902" s="1">
+        <v>42768.94798611111</v>
+      </c>
+      <c r="C902">
+        <v>60216</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E902" t="s">
+        <v>1</v>
+      </c>
+      <c r="F902" s="2">
+        <v>9.6527777777777768E-2</v>
+      </c>
+      <c r="G902" s="2">
+        <v>0.44722222222222219</v>
+      </c>
+      <c r="H902" s="2">
+        <v>0</v>
+      </c>
+      <c r="I902" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="903" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A903">
+        <v>11</v>
+      </c>
+      <c r="B903" s="1">
+        <v>42768.940486111111</v>
+      </c>
+      <c r="C903">
+        <v>60412</v>
+      </c>
+      <c r="D903" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E903" t="s">
+        <v>1</v>
+      </c>
+      <c r="F903" s="2">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="G903" s="2">
+        <v>3.1944444444444449E-2</v>
+      </c>
+      <c r="H903" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I903" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="904" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A904">
+        <v>12</v>
+      </c>
+      <c r="B904" s="1">
+        <v>42768.939918981479</v>
+      </c>
+      <c r="C904">
+        <v>3526</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E904" t="s">
+        <v>1</v>
+      </c>
+      <c r="F904" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G904" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="H904" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I904" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="905" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A905">
+        <v>13</v>
+      </c>
+      <c r="B905" s="1">
+        <v>42768.939050925925</v>
+      </c>
+      <c r="C905">
+        <v>57653</v>
+      </c>
+      <c r="D905" t="s">
+        <v>633</v>
+      </c>
+      <c r="E905" t="s">
+        <v>1</v>
+      </c>
+      <c r="F905" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="G905" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H905" s="2">
+        <v>0</v>
+      </c>
+      <c r="I905" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="906" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A906">
+        <v>14</v>
+      </c>
+      <c r="B906" s="1">
+        <v>42768.938113425924</v>
+      </c>
+      <c r="C906">
+        <v>75514</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E906" t="s">
+        <v>1</v>
+      </c>
+      <c r="F906" s="2">
+        <v>7.8472222222222221E-2</v>
+      </c>
+      <c r="G906" s="2">
+        <v>0.2951388888888889</v>
+      </c>
+      <c r="H906" s="2">
+        <v>0</v>
+      </c>
+      <c r="I906" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="907" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A907">
+        <v>15</v>
+      </c>
+      <c r="B907" s="1">
+        <v>42768.933159722219</v>
+      </c>
+      <c r="C907">
+        <v>148117</v>
+      </c>
+      <c r="D907" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E907" t="s">
+        <v>1</v>
+      </c>
+      <c r="F907" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G907" s="2">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="H907" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I907" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="908" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A908">
+        <v>16</v>
+      </c>
+      <c r="B908" s="1">
+        <v>42768.931203703702</v>
+      </c>
+      <c r="C908">
+        <v>141773</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E908" t="s">
+        <v>1</v>
+      </c>
+      <c r="F908" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G908" s="2">
+        <v>5.6250000000000001E-2</v>
+      </c>
+      <c r="H908" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I908" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="909" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A909">
+        <v>17</v>
+      </c>
+      <c r="B909" s="1">
+        <v>42768.930219907408</v>
+      </c>
+      <c r="C909">
+        <v>61421</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E909" t="s">
+        <v>1</v>
+      </c>
+      <c r="F909" s="2">
+        <v>0.10625</v>
+      </c>
+      <c r="G909" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="H909" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I909" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="910" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A910">
+        <v>18</v>
+      </c>
+      <c r="B910" s="1">
+        <v>42768.92895833333</v>
+      </c>
+      <c r="C910">
+        <v>166378</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E910" t="s">
+        <v>1</v>
+      </c>
+      <c r="F910" s="2">
+        <v>0.11180555555555556</v>
+      </c>
+      <c r="G910" s="2">
+        <v>0.20694444444444446</v>
+      </c>
+      <c r="H910" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I910" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="911" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A911">
+        <v>19</v>
+      </c>
+      <c r="B911" s="1">
+        <v>42768.925474537034</v>
+      </c>
+      <c r="C911">
+        <v>57684</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E911" t="s">
+        <v>1</v>
+      </c>
+      <c r="F911" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G911" s="2">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="H911" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I911" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="912" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A912">
+        <v>20</v>
+      </c>
+      <c r="B912" s="1">
+        <v>42768.827245370368</v>
+      </c>
+      <c r="C912">
+        <v>61189</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E912" t="s">
+        <v>1</v>
+      </c>
+      <c r="F912" s="2">
+        <v>0.11527777777777777</v>
+      </c>
+      <c r="G912" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="H912" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="I912" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="913" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A913">
+        <v>21</v>
+      </c>
+      <c r="B913" s="1">
+        <v>42768.812939814816</v>
+      </c>
+      <c r="C913">
+        <v>63428</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E913" t="s">
+        <v>1</v>
+      </c>
+      <c r="F913" s="2">
+        <v>4.4444444444444446E-2</v>
+      </c>
+      <c r="G913" s="2">
+        <v>5.7638888888888885E-2</v>
+      </c>
+      <c r="H913" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I913" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="914" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A914">
+        <v>22</v>
+      </c>
+      <c r="B914" s="1">
+        <v>42768.811932870369</v>
+      </c>
+      <c r="C914">
+        <v>174667</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E914" t="s">
+        <v>1</v>
+      </c>
+      <c r="F914" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G914" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="H914" s="2">
+        <v>1.1805555555555555E-2</v>
+      </c>
+      <c r="I914" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="915" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A915">
+        <v>23</v>
+      </c>
+      <c r="B915" s="1">
+        <v>42768.810995370368</v>
+      </c>
+      <c r="C915">
+        <v>22613</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E915" t="s">
+        <v>1</v>
+      </c>
+      <c r="F915" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="G915" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H915" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I915" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="916" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A916">
+        <v>24</v>
+      </c>
+      <c r="B916" s="1">
+        <v>42768.81077546296</v>
+      </c>
+      <c r="C916">
+        <v>27614</v>
+      </c>
+      <c r="D916" t="s">
+        <v>460</v>
+      </c>
+      <c r="E916" t="s">
+        <v>1</v>
+      </c>
+      <c r="F916" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="G916" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H916" s="2">
+        <v>0</v>
+      </c>
+      <c r="I916" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="917" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A917">
+        <v>25</v>
+      </c>
+      <c r="B917" s="1">
+        <v>42768.809479166666</v>
+      </c>
+      <c r="C917">
+        <v>79806</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E917" t="s">
+        <v>1</v>
+      </c>
+      <c r="F917" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="G917" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="H917" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I917" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="918" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A918">
+        <v>26</v>
+      </c>
+      <c r="B918" s="1">
+        <v>42768.80878472222</v>
+      </c>
+      <c r="C918">
+        <v>154410</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E918" t="s">
+        <v>1</v>
+      </c>
+      <c r="F918" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="G918" s="2">
+        <v>0.2590277777777778</v>
+      </c>
+      <c r="H918" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="I918" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="919" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A919">
+        <v>27</v>
+      </c>
+      <c r="B919" s="1">
+        <v>42768.802627314813</v>
+      </c>
+      <c r="C919">
+        <v>45359</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E919" t="s">
+        <v>1</v>
+      </c>
+      <c r="F919" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G919" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H919" s="2">
+        <v>0</v>
+      </c>
+      <c r="I919" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="920" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A920">
+        <v>28</v>
+      </c>
+      <c r="B920" s="1">
+        <v>42768.802048611113</v>
+      </c>
+      <c r="C920">
+        <v>90568</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E920" t="s">
+        <v>1</v>
+      </c>
+      <c r="F920" s="2">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G920" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H920" s="2">
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="I920" t="s">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="921" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A921">
+        <v>29</v>
+      </c>
+      <c r="B921" s="1">
+        <v>42768.798032407409</v>
+      </c>
+      <c r="C921">
+        <v>102436</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E921" t="s">
+        <v>1</v>
+      </c>
+      <c r="F921" s="2">
+        <v>6.7361111111111108E-2</v>
+      </c>
+      <c r="G921" s="2">
+        <v>1.4583333333333332E-2</v>
+      </c>
+      <c r="H921" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="I921" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="922" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A922">
+        <v>30</v>
+      </c>
+      <c r="B922" s="1">
+        <v>42768.797743055555</v>
+      </c>
+      <c r="C922">
+        <v>55000</v>
+      </c>
+      <c r="D922" t="s">
+        <v>549</v>
+      </c>
+      <c r="E922" t="s">
+        <v>1</v>
+      </c>
+      <c r="F922" s="2">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G922" s="2">
+        <v>0.14652777777777778</v>
+      </c>
+      <c r="H922" s="2">
+        <v>6.2499999999999995E-3</v>
+      </c>
+      <c r="I922" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="923" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A923">
+        <v>31</v>
+      </c>
+      <c r="B923" s="1">
+        <v>42768.795266203706</v>
+      </c>
+      <c r="C923">
+        <v>89145</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1</v>
+      </c>
+      <c r="F923" s="2">
+        <v>0.10902777777777778</v>
+      </c>
+      <c r="G923" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="H923" s="2">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="I923" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="924" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A924">
+        <v>32</v>
+      </c>
+      <c r="B924" s="1">
+        <v>42768.794502314813</v>
+      </c>
+      <c r="C924">
+        <v>172919</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E924" t="s">
+        <v>1</v>
+      </c>
+      <c r="F924" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="G924" s="2">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H924" s="2">
+        <v>0</v>
+      </c>
+      <c r="I924" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="925" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A925">
+        <v>33</v>
+      </c>
+      <c r="B925" s="1">
+        <v>42768.794178240743</v>
+      </c>
+      <c r="C925">
+        <v>147029</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1</v>
+      </c>
+      <c r="F925" s="2">
+        <v>4.027777777777778E-2</v>
+      </c>
+      <c r="G925" s="2">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="H925" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I925" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="926" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A926">
+        <v>34</v>
+      </c>
+      <c r="B926" s="1">
+        <v>42768.793946759259</v>
+      </c>
+      <c r="C926">
+        <v>57311</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1</v>
+      </c>
+      <c r="F926" s="2">
+        <v>7.1527777777777787E-2</v>
+      </c>
+      <c r="G926" s="2">
+        <v>9.8611111111111108E-2</v>
+      </c>
+      <c r="H926" s="2">
+        <v>6.8749999999999992E-2</v>
+      </c>
+      <c r="I926" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="927" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A927">
+        <v>35</v>
+      </c>
+      <c r="B927" s="1">
+        <v>42768.792256944442</v>
+      </c>
+      <c r="C927">
+        <v>47227</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E927" t="s">
+        <v>1</v>
+      </c>
+      <c r="F927" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="G927" s="2">
+        <v>2.9861111111111113E-2</v>
+      </c>
+      <c r="H927" s="2">
+        <v>1.3194444444444444E-2</v>
+      </c>
+      <c r="I927" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="928" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A928">
+        <v>36</v>
+      </c>
+      <c r="B928" s="1">
+        <v>42768.791527777779</v>
+      </c>
+      <c r="C928">
+        <v>165831</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1</v>
+      </c>
+      <c r="F928" s="2">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="G928" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="H928" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I928" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A929">
+        <v>37</v>
+      </c>
+      <c r="B929" s="1">
+        <v>42768.789837962962</v>
+      </c>
+      <c r="C929">
+        <v>94969</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1</v>
+      </c>
+      <c r="F929" s="2">
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="G929" s="2">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H929" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I929" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A930">
+        <v>38</v>
+      </c>
+      <c r="B930" s="1">
+        <v>42768.789444444446</v>
+      </c>
+      <c r="C930">
+        <v>169543</v>
+      </c>
+      <c r="D930" t="s">
+        <v>56</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1</v>
+      </c>
+      <c r="F930" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G930" s="2">
+        <v>7.7083333333333337E-2</v>
+      </c>
+      <c r="H930" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I930" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A931">
+        <v>39</v>
+      </c>
+      <c r="B931" s="1">
+        <v>42768.788124999999</v>
+      </c>
+      <c r="C931">
+        <v>64008</v>
+      </c>
+      <c r="D931" t="s">
+        <v>317</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1</v>
+      </c>
+      <c r="F931" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G931" s="2">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="H931" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I931" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A932">
+        <v>1</v>
+      </c>
+      <c r="B932" s="1">
+        <v>42770.861435185187</v>
+      </c>
+      <c r="C932">
+        <v>54653</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1</v>
+      </c>
+      <c r="F932" s="2">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G932" s="2">
+        <v>0.23124999999999998</v>
+      </c>
+      <c r="H932" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I932" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A933">
+        <v>2</v>
+      </c>
+      <c r="B933" s="1">
+        <v>42770.857465277775</v>
+      </c>
+      <c r="C933">
+        <v>6711</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1</v>
+      </c>
+      <c r="F933" s="2">
+        <v>0.12361111111111112</v>
+      </c>
+      <c r="G933" s="2">
+        <v>0.21805555555555556</v>
+      </c>
+      <c r="H933" s="2">
+        <v>0</v>
+      </c>
+      <c r="I933" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A934">
+        <v>3</v>
+      </c>
+      <c r="B934" s="1">
+        <v>42770.853750000002</v>
+      </c>
+      <c r="C934">
+        <v>139740</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1</v>
+      </c>
+      <c r="F934" s="2">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="G934" s="2">
+        <v>0.18541666666666667</v>
+      </c>
+      <c r="H934" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I934" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A935">
+        <v>4</v>
+      </c>
+      <c r="B935" s="1">
+        <v>42770.850624999999</v>
+      </c>
+      <c r="C935">
+        <v>88416</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1</v>
+      </c>
+      <c r="F935" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="G935" s="2">
+        <v>2.7083333333333334E-2</v>
+      </c>
+      <c r="H935" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I935" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A936">
+        <v>5</v>
+      </c>
+      <c r="B936" s="1">
+        <v>42770.849120370367</v>
+      </c>
+      <c r="C936">
+        <v>62917</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1</v>
+      </c>
+      <c r="F936" s="2">
+        <v>0.15277777777777776</v>
+      </c>
+      <c r="G936" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="H936" s="2">
+        <v>0</v>
+      </c>
+      <c r="I936" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A937">
+        <v>6</v>
+      </c>
+      <c r="B937" s="1">
+        <v>42770.835752314815</v>
+      </c>
+      <c r="C937">
+        <v>128639</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1</v>
+      </c>
+      <c r="F937" s="2">
+        <v>9.0972222222222218E-2</v>
+      </c>
+      <c r="G937" s="2">
+        <v>3.8194444444444441E-2</v>
+      </c>
+      <c r="H937" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I937" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A938">
+        <v>7</v>
+      </c>
+      <c r="B938" s="1">
+        <v>42770.835081018522</v>
+      </c>
+      <c r="C938">
+        <v>138764</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1</v>
+      </c>
+      <c r="F938" s="2">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="G938" s="2">
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H938" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I938" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A939">
+        <v>8</v>
+      </c>
+      <c r="B939" s="1">
+        <v>42770.822974537034</v>
+      </c>
+      <c r="C939">
+        <v>12571</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1</v>
+      </c>
+      <c r="F939" s="2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G939" s="2">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="H939" s="2">
+        <v>0</v>
+      </c>
+      <c r="I939" t="s">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="940" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A940">
+        <v>9</v>
+      </c>
+      <c r="B940" s="1">
+        <v>42770.814965277779</v>
+      </c>
+      <c r="C940">
+        <v>62461</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1</v>
+      </c>
+      <c r="F940" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="G940" s="2">
+        <v>0.11597222222222221</v>
+      </c>
+      <c r="H940" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I940" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="941" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A941">
+        <v>10</v>
+      </c>
+      <c r="B941" s="1">
+        <v>42770.80976851852</v>
+      </c>
+      <c r="C941">
+        <v>97166</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1</v>
+      </c>
+      <c r="F941" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="G941" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H941" s="2">
+        <v>0</v>
+      </c>
+      <c r="I941" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="942" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A942">
+        <v>11</v>
+      </c>
+      <c r="B942" s="1">
+        <v>42770.809305555558</v>
+      </c>
+      <c r="C942">
+        <v>71690</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1</v>
+      </c>
+      <c r="F942" s="2">
+        <v>7.2222222222222229E-2</v>
+      </c>
+      <c r="G942" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="H942" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="I942" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="943" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A943">
+        <v>12</v>
+      </c>
+      <c r="B943" s="1">
+        <v>42770.807962962965</v>
+      </c>
+      <c r="C943">
+        <v>117957</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1</v>
+      </c>
+      <c r="F943" s="2">
+        <v>0.11041666666666666</v>
+      </c>
+      <c r="G943" s="2">
+        <v>0.19027777777777777</v>
+      </c>
+      <c r="H943" s="2">
+        <v>7.9166666666666663E-2</v>
+      </c>
+      <c r="I943" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="944" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A944">
+        <v>13</v>
+      </c>
+      <c r="B944" s="1">
+        <v>42770.804548611108</v>
+      </c>
+      <c r="C944">
+        <v>152274</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1</v>
+      </c>
+      <c r="F944" s="2">
+        <v>5.486111111111111E-2</v>
+      </c>
+      <c r="G944" s="2">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="H944" s="2">
+        <v>0</v>
+      </c>
+      <c r="I944" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="945" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A945">
+        <v>14</v>
+      </c>
+      <c r="B945" s="1">
+        <v>42770.804386574076</v>
+      </c>
+      <c r="C945">
+        <v>147375</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1</v>
+      </c>
+      <c r="F945" s="2">
+        <v>0.19097222222222221</v>
+      </c>
+      <c r="G945" s="2">
+        <v>2.1527777777777781E-2</v>
+      </c>
+      <c r="H945" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I945" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="946" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A946">
+        <v>15</v>
+      </c>
+      <c r="B946" s="1">
+        <v>42770.803993055553</v>
+      </c>
+      <c r="C946">
+        <v>167663</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1</v>
+      </c>
+      <c r="F946" s="2">
+        <v>0.12916666666666668</v>
+      </c>
+      <c r="G946" s="2">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H946" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I946" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="947" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A947">
+        <v>16</v>
+      </c>
+      <c r="B947" s="1">
+        <v>42770.796157407407</v>
+      </c>
+      <c r="C947">
+        <v>154396</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1</v>
+      </c>
+      <c r="F947" s="2">
+        <v>0.21458333333333335</v>
+      </c>
+      <c r="G947" s="2">
+        <v>0.20625000000000002</v>
+      </c>
+      <c r="H947" s="2">
+        <v>0</v>
+      </c>
+      <c r="I947" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="948" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A948">
+        <v>17</v>
+      </c>
+      <c r="B948" s="1">
+        <v>42769.568842592591</v>
+      </c>
+      <c r="C948">
+        <v>89282</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1</v>
+      </c>
+      <c r="F948" s="2">
+        <v>0.15763888888888888</v>
+      </c>
+      <c r="G948" s="2">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="H948" s="2">
+        <v>4.5833333333333337E-2</v>
+      </c>
+      <c r="I948" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="949" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A949">
+        <v>18</v>
+      </c>
+      <c r="B949" s="1">
+        <v>42769.567708333336</v>
+      </c>
+      <c r="C949">
+        <v>146455</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1784</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1</v>
+      </c>
+      <c r="F949" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="G949" s="2">
+        <v>2.8472222222222222E-2</v>
+      </c>
+      <c r="H949" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I949" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="950" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A950">
+        <v>19</v>
+      </c>
+      <c r="B950" s="1">
+        <v>42769.567083333335</v>
+      </c>
+      <c r="C950">
+        <v>155376</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1</v>
+      </c>
+      <c r="F950" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G950" s="2">
+        <v>3.5416666666666666E-2</v>
+      </c>
+      <c r="H950" s="2">
+        <v>0</v>
+      </c>
+      <c r="I950" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="951" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A951">
+        <v>20</v>
+      </c>
+      <c r="B951" s="1">
+        <v>42769.566365740742</v>
+      </c>
+      <c r="C951">
+        <v>103918</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1788</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1</v>
+      </c>
+      <c r="F951" s="2">
+        <v>5.6944444444444443E-2</v>
+      </c>
+      <c r="G951" s="2">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="H951" s="2">
+        <v>0</v>
+      </c>
+      <c r="I951" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="952" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A952">
+        <v>21</v>
+      </c>
+      <c r="B952" s="1">
+        <v>42769.554143518515</v>
+      </c>
+      <c r="C952">
+        <v>45674</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1</v>
+      </c>
+      <c r="F952" s="2">
+        <v>0.14305555555555557</v>
+      </c>
+      <c r="G952" s="2">
+        <v>0.32777777777777778</v>
+      </c>
+      <c r="H952" s="2">
+        <v>0</v>
+      </c>
+      <c r="I952" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="953" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A953">
+        <v>22</v>
+      </c>
+      <c r="B953" s="1">
+        <v>42769.510439814818</v>
+      </c>
+      <c r="C953">
+        <v>10646</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1</v>
+      </c>
+      <c r="F953" s="2">
+        <v>6.805555555555555E-2</v>
+      </c>
+      <c r="G953" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H953" s="2">
+        <v>0</v>
+      </c>
+      <c r="I953" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="954" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A954">
+        <v>23</v>
+      </c>
+      <c r="B954" s="1">
+        <v>42769.050810185188</v>
+      </c>
+      <c r="C954">
+        <v>96454</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1</v>
+      </c>
+      <c r="F954" s="2">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G954" s="2">
+        <v>1.8055555555555557E-2</v>
+      </c>
+      <c r="H954" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I954" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="955" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A955">
+        <v>24</v>
+      </c>
+      <c r="B955" s="1">
+        <v>42769.050474537034</v>
+      </c>
+      <c r="C955">
+        <v>75828</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1796</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1</v>
+      </c>
+      <c r="F955" s="2">
+        <v>4.3750000000000004E-2</v>
+      </c>
+      <c r="G955" s="2">
+        <v>0.33263888888888887</v>
+      </c>
+      <c r="H955" s="2">
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="I955" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="956" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A956">
+        <v>25</v>
+      </c>
+      <c r="B956" s="1">
+        <v>42769.044606481482</v>
+      </c>
+      <c r="C956">
+        <v>92673</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1</v>
+      </c>
+      <c r="F956" s="2">
+        <v>7.0833333333333331E-2</v>
+      </c>
+      <c r="G956" s="2">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="H956" s="2">
+        <v>0</v>
+      </c>
+      <c r="I956" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="957" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A957">
+        <v>26</v>
+      </c>
+      <c r="B957" s="1">
+        <v>42769.038206018522</v>
+      </c>
+      <c r="C957">
+        <v>95430</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1</v>
+      </c>
+      <c r="F957" s="2">
+        <v>9.1666666666666674E-2</v>
+      </c>
+      <c r="G957" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="H957" s="2">
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="I957" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="958" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A958">
+        <v>27</v>
+      </c>
+      <c r="B958" s="1">
+        <v>42769.037349537037</v>
+      </c>
+      <c r="C958">
+        <v>150531</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1</v>
+      </c>
+      <c r="F958" s="2">
+        <v>7.3611111111111113E-2</v>
+      </c>
+      <c r="G958" s="2">
+        <v>4.6527777777777779E-2</v>
+      </c>
+      <c r="H958" s="2">
+        <v>4.8611111111111112E-3</v>
+      </c>
+      <c r="I958" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="959" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A959">
+        <v>28</v>
+      </c>
+      <c r="B959" s="1">
+        <v>42769.036527777775</v>
+      </c>
+      <c r="C959">
+        <v>94583</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1804</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1</v>
+      </c>
+      <c r="F959" s="2">
+        <v>8.6111111111111124E-2</v>
+      </c>
+      <c r="G959" s="2">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="H959" s="2">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="I959" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="960" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A960">
+        <v>29</v>
+      </c>
+      <c r="B960" s="1">
+        <v>42769.035567129627</v>
+      </c>
+      <c r="C960">
+        <v>30856</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1</v>
+      </c>
+      <c r="F960" s="2">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="G960" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="H960" s="2">
+        <v>0</v>
+      </c>
+      <c r="I960" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="961" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A961">
+        <v>30</v>
+      </c>
+      <c r="B961" s="1">
+        <v>42769.033796296295</v>
+      </c>
+      <c r="C961">
+        <v>90731</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1</v>
+      </c>
+      <c r="F961" s="2">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="G961" s="2">
+        <v>2.5694444444444447E-2</v>
+      </c>
+      <c r="H961" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I961" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="962" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A962">
+        <v>31</v>
+      </c>
+      <c r="B962" s="1">
+        <v>42769.033263888887</v>
+      </c>
+      <c r="C962">
+        <v>50827</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1</v>
+      </c>
+      <c r="F962" s="2">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="G962" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H962" s="2">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="I962" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="963" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A963">
+        <v>32</v>
+      </c>
+      <c r="B963" s="1">
+        <v>42769.033043981479</v>
+      </c>
+      <c r="C963">
+        <v>169728</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1812</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1</v>
+      </c>
+      <c r="F963" s="2">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="G963" s="2">
+        <v>0.33402777777777781</v>
+      </c>
+      <c r="H963" s="2">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="I963" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="964" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A964">
+        <v>33</v>
+      </c>
+      <c r="B964" s="1">
+        <v>42769.027349537035</v>
+      </c>
+      <c r="C964">
+        <v>10871</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1</v>
+      </c>
+      <c r="F964" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G964" s="2">
+        <v>4.2361111111111106E-2</v>
+      </c>
+      <c r="H964" s="2">
+        <v>0</v>
+      </c>
+      <c r="I964" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="965" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A965">
+        <v>34</v>
+      </c>
+      <c r="B965" s="1">
+        <v>42769.026192129626</v>
+      </c>
+      <c r="C965">
+        <v>1035443</v>
+      </c>
+      <c r="D965" t="s">
+        <v>915</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1</v>
+      </c>
+      <c r="F965" s="2">
+        <v>0.11875000000000001</v>
+      </c>
+      <c r="G965" s="2">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="H965" s="2">
+        <v>0</v>
+      </c>
+      <c r="I965" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="966" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A966">
+        <v>35</v>
+      </c>
+      <c r="B966" s="1">
+        <v>42769.022060185183</v>
+      </c>
+      <c r="C966">
+        <v>41273</v>
+      </c>
+      <c r="D966" t="s">
+        <v>631</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1</v>
+      </c>
+      <c r="F966" s="2">
+        <v>5.347222222222222E-2</v>
+      </c>
+      <c r="G966" s="2">
+        <v>6.1111111111111116E-2</v>
+      </c>
+      <c r="H966" s="2">
+        <v>9.7222222222222224E-3</v>
+      </c>
+      <c r="I966" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="967" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A967">
+        <v>36</v>
+      </c>
+      <c r="B967" s="1">
+        <v>42769.021006944444</v>
+      </c>
+      <c r="C967">
+        <v>21542</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1</v>
+      </c>
+      <c r="F967" s="2">
+        <v>7.013888888888889E-2</v>
+      </c>
+      <c r="G967" s="2">
+        <v>5.2777777777777778E-2</v>
+      </c>
+      <c r="H967" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="I967" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="968" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A968">
+        <v>37</v>
+      </c>
+      <c r="B968" s="1">
+        <v>42769.02008101852</v>
+      </c>
+      <c r="C968">
+        <v>148182</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1</v>
+      </c>
+      <c r="F968" s="2">
+        <v>9.930555555555555E-2</v>
+      </c>
+      <c r="G968" s="2">
+        <v>1.5972222222222224E-2</v>
+      </c>
+      <c r="H968" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I968" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="969" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A969">
+        <v>38</v>
+      </c>
+      <c r="B969" s="1">
+        <v>42769.019097222219</v>
+      </c>
+      <c r="C969">
+        <v>54145</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1</v>
+      </c>
+      <c r="F969" s="2">
+        <v>0.14444444444444446</v>
+      </c>
+      <c r="G969" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="H969" s="2">
+        <v>0</v>
+      </c>
+      <c r="I969" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="970" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A970">
+        <v>39</v>
+      </c>
+      <c r="B970" s="1">
+        <v>42769.012557870374</v>
+      </c>
+      <c r="C970">
+        <v>78730</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1822</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1</v>
+      </c>
+      <c r="F970" s="2">
+        <v>7.5694444444444439E-2</v>
+      </c>
+      <c r="G970" s="2">
+        <v>2.9166666666666664E-2</v>
+      </c>
+      <c r="H970" s="2">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="I970" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="971" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A971">
+        <v>40</v>
+      </c>
+      <c r="B971" s="1">
+        <v>42769.010995370372</v>
+      </c>
+      <c r="C971">
+        <v>33186</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1</v>
+      </c>
+      <c r="F971" s="2">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="G971" s="2">
+        <v>5.9027777777777783E-2</v>
+      </c>
+      <c r="H971" s="2">
+        <v>0</v>
+      </c>
+      <c r="I971" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="972" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A972">
+        <v>41</v>
+      </c>
+      <c r="B972" s="1">
+        <v>42769.009965277779</v>
+      </c>
+      <c r="C972">
+        <v>49945</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1</v>
+      </c>
+      <c r="F972" s="2">
+        <v>3.2638888888888891E-2</v>
+      </c>
+      <c r="G972" s="2">
+        <v>2.2222222222222223E-2</v>
+      </c>
+      <c r="H972" s="2">
+        <v>0</v>
+      </c>
+      <c r="I972" t="s">
+        <v>1826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
